--- a/assets/files/CV16.xlsx
+++ b/assets/files/CV16.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1998 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>35.175879396984925</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>30.653266331658291</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>9.0452261306532655</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>19.095477386934672</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>6.0301507537688446</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>26.455026455026456</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>39.682539682539684</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>6.3492063492063489</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>26.984126984126984</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>0.52910052910052907</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>30.927835051546392</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>35.051546391752581</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>7.731958762886598</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>22.938144329896907</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>3.3505154639175259</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>31.325301204819276</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>41.76706827309237</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>8.4337349397590362</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>18.072289156626507</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0.40160642570281124</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>249</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>44.26229508196721</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>30.327868852459016</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>16.393442622950818</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.81967213114754101</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>122</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>35.57951482479784</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>38.005390835579512</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>11.05121293800539</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>14.824797843665769</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.53908355795148244</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>45.823927765237023</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>21.670428893905193</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>18.510158013544018</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>8.1264108352144468</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>5.8690744920993225</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>443</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>44.444444444444443</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>24.691358024691358</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>15.22633744855967</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>10.699588477366255</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>4.9382716049382713</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>243</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>45.335276967930028</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>22.740524781341108</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>17.346938775510203</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>9.037900874635568</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>5.5393586005830908</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>686</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>39.240506329113927</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>34.177215189873415</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>17.721518987341771</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>8.8607594936708853</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>41.726618705035975</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>31.294964028776977</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>18.705035971223023</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>7.5539568345323742</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>0.71942446043165464</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>41.176470588235297</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>31.932773109243698</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>18.487394957983192</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>7.8431372549019605</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>0.56022408963585435</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>45.142857142857146</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>18.285714285714285</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>18.857142857142858</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>5.7142857142857144</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>12</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>175</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>46.296296296296298</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>18.518518518518519</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>20.37037037037037</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>6.4814814814814818</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>108</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>45.583038869257948</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>18.374558303886925</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>19.434628975265017</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>6.0070671378091873</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>10.600706713780919</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>36.410256410256409</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>19.487179487179485</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>22.051282051282051</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>19.487179487179485</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>2.5641025641025643</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>38.028169014084504</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>20.187793427230048</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>25.821596244131456</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>14.553990610328638</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>1.408450704225352</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>37.254901960784316</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>19.852941176470587</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>24.019607843137255</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>16.911764705882351</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>1.9607843137254901</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>20.930232558139537</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>25.581395348837209</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>44.186046511627907</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>4.6511627906976747</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>32.721712538226299</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>29.663608562691131</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>19.26605504587156</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>12.844036697247706</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>5.5045871559633026</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>31.351351351351351</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>29.189189189189189</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>17.567567567567568</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>16.486486486486488</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>5.4054054054054053</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>54.878048780487802</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>19.918699186991869</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>12.601626016260163</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>8.536585365853659</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4.0650406504065044</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>52.173913043478258</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>26.811594202898551</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>9.420289855072463</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>9.420289855072463</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>2.1739130434782608</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>138</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>53.90625</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>22.395833333333332</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>11.458333333333334</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>8.8541666666666661</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>3.3854166666666665</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>71.264367816091948</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>14.942528735632184</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>4.5977011494252871</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>2.2988505747126435</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>61.565836298932382</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>17.081850533807827</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>9.6085409252669045</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>5.6939501779359434</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>6.0498220640569391</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>63.858695652173914</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>16.576086956521738</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>8.9673913043478262</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>5.4347826086956523</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>5.1630434782608692</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>27.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>25</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>26.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>9</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>34.806629834254146</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>30.386740331491712</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>22.099447513812155</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>9.94475138121547</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>2.7624309392265194</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>181</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>30.971128608923884</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>20.73490813648294</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>23.622047244094489</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>18.635170603674542</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>6.0367454068241466</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>6.1946902654867255</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>31.858407079646017</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0.88495575221238942</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>40.707964601769909</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>20.353982300884955</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>9.7402597402597397</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>21.428571428571427</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>52.597402597402599</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>16.233766233766232</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>7.6315789473684212</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>27.631578947368421</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.52631578947368418</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>45.526315789473685</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>18.684210526315791</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>46.753246753246756</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>22.943722943722943</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>16.017316017316016</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>6.0606060606060606</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>8.2251082251082259</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>231</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>45.370370370370374</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>14.814814814814815</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>36.111111111111114</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>2.7777777777777777</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>0.92592592592592593</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>108</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>46.312684365781713</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>20.353982300884955</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>22.418879056047199</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>5.0147492625368733</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>5.8997050147492622</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>43.902439024390247</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>20.325203252032519</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>26.016260162601625</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>7.3170731707317076</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>2.4390243902439024</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>50.597609561752989</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>16.334661354581673</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>17.131474103585656</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>11.155378486055778</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>4.7808764940239046</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>48.395721925133692</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>17.647058823529413</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>20.053475935828878</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>9.8930481283422456</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>4.0106951871657754</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>37.5</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>6.25</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>22.916666666666668</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>8.3333333333333339</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>29.253731343283583</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>54.328358208955223</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>3.8805970149253732</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>11.940298507462687</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>0.59701492537313428</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>28.720626631853786</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>52.219321148825067</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>4.1775456919060057</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>13.315926892950392</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>1.566579634464752</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>52.666666666666664</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>41.333333333333336</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>1.3333333333333333</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>54.237288135593218</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>12.288135593220339</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>26.694915254237287</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>6.3559322033898304</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>53.626943005181346</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>9.0673575129533681</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>32.383419689119172</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>4.4041450777202069</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.51813471502590669</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>37.00787401574803</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>23.622047244094489</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>12.598425196850394</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>25.196850393700789</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>1.5748031496062993</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>381</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>37.00787401574803</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>23.622047244094489</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>12.598425196850394</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>25.196850393700789</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>1.5748031496062993</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>25.641025641025642</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>17.948717948717949</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.256410256410257</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>30.76923076923077</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>15.384615384615385</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>22.287390029325515</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>42.521994134897362</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>1.466275659824047</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>30.205278592375368</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>3.5190615835777126</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>341</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>22.631578947368421</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>40</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>2.3684210526315788</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>30.263157894736842</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>4.7368421052631575</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>57.225433526011564</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>28.323699421965319</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>4.6242774566473992</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>3.4682080924855492</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>6.3583815028901736</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>173</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>65.027322404371589</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>24.043715846994534</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>9.8360655737704921</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>0.54644808743169404</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>0.54644808743169404</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>61.235955056179776</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>26.123595505617978</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>7.3033707865168536</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>1.9662921348314606</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>3.3707865168539324</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>32.258064516129032</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>22.580645161290324</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>3.225806451612903</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>32.258064516129032</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>9.67741935483871</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>31</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>24.119241192411923</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>44.444444444444443</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>5.4200542005420056</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>24.390243902439025</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.6260162601626016</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>369</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>24.75</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>42.75</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>5.25</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>25</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>2.25</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>39.901477832512313</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>26.600985221674875</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>15.270935960591133</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>12.807881773399014</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>5.4187192118226601</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>43.333333333333336</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>30</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>12.777777777777779</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>41.514360313315926</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>28.198433420365536</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>14.360313315926893</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>12.793733681462141</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>3.133159268929504</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>43.930635838150287</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>16.76300578034682</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>21.387283236994218</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>12.138728323699421</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>5.7803468208092488</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>45.853658536585364</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>24.390243902439025</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>14.146341463414634</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>11.707317073170731</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>3.9024390243902438</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>44.973544973544975</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>20.899470899470899</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>17.460317460317459</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>11.904761904761905</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>45.212765957446805</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>27.127659574468087</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>17.021276595744681</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>6.9148936170212769</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>3.7234042553191489</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>50.256410256410255</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>23.589743589743591</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>14.871794871794872</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>9.2307692307692299</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>2.0512820512820511</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>47.780678851174933</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>25.326370757180158</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>15.926892950391645</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>8.0939947780678843</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>2.8720626631853787</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>2.8213166144200628</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>5.9561128526645772</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>0.62695924764890287</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>66.457680250783696</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>24.137931034482758</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>319</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>8.064516129032258</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>41.935483870967744</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>1.6129032258064515</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>40.322580645161288</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>8.064516129032258</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>62</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>3.674540682414698</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>11.811023622047244</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>0.78740157480314965</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>62.204724409448822</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>21.522309711286088</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>30.481283422459892</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>29.946524064171122</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>23.529411764705884</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>10.695187165775401</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>5.3475935828877006</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>187</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>44.791666666666664</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>17.1875</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>22.395833333333332</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>11.979166666666666</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>3.6458333333333335</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>37.730870712401057</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>23.482849604221634</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>22.955145118733508</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>11.345646437994723</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>4.4854881266490763</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>26.5625</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>40.972222222222221</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>14.0625</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>11.805555555555555</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>6.5972222222222223</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>37.102734663710272</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>31.116038433111605</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>12.934220251293421</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>14.33850702143385</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>4.5084996304508502</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1353</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>33.955417314670811</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>34.059097978227058</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>13.271124935199586</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>13.582166925868325</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>5.132192846034215</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1929</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>59.420289855072461</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>28.985507246376812</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>5.7971014492753623</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>138</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>55.887850467289717</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>26.542056074766354</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>7.1028037383177569</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>8.2242990654205599</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>2.2429906542056073</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>535</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>56.612184249628527</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>27.043090638930163</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>6.8350668647845465</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>7.7265973254086182</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>1.7830609212481427</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>673</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>56.71641791044776</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>17.164179104477611</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>15.671641791044776</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>3.7313432835820897</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>6.7164179104477615</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>134</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>51.05263157894737</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>15.263157894736842</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>18.94736842105263</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>6.8421052631578947</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>7.8947368421052628</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>53.395061728395063</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>16.049382716049383</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>17.592592592592592</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>40.692640692640694</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>30.735930735930737</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>11.688311688311689</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>12.987012987012987</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>3.8961038961038961</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>231</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>38.524590163934427</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>27.868852459016395</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>16.393442622950818</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>11.475409836065573</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>5.7377049180327866</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>39.943342776203963</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>29.745042492917847</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>13.314447592067989</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>12.464589235127479</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>4.5325779036827196</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>45.806451612903224</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>26.451612903225808</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>14.838709677419354</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>8.387096774193548</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>4.5161290322580649</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>44.396551724137929</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>36.637931034482762</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>7.3275862068965516</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>1.2931034482758621</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>44.961240310077521</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>32.558139534883722</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>12.144702842377262</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>7.7519379844961236</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>2.5839793281653747</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>37.837837837837839</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>13.513513513513514</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>45.045045045045043</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>38.970588235294116</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>33.823529411764703</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>15.441176470588236</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>5.5147058823529411</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>6.25</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>38.642297650130551</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>27.93733681462141</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>24.020887728459531</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>4.438642297650131</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>4.9608355091383816</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>53.333333333333336</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>20</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>20</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>42.936288088642662</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>24.653739612188367</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>18.282548476454295</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>9.6952908587257625</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>4.43213296398892</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>361</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>43.351063829787236</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>24.468085106382979</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>18.351063829787233</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>9.5744680851063837</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>4.2553191489361701</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>376</v>
       </c>
     </row>
